--- a/Assets/10. Data/MagicTable.xlsx
+++ b/Assets/10. Data/MagicTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Elin\Assets\10. Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F71439D-69CE-424B-A2F4-52BDA4838460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192BDEA6-448E-4300-BCB3-CBFACF247D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="96">
   <si>
     <t>인덱스</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -291,18 +291,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DBF_BUBBLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ATK_SPRAY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DBF_SPARY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DBF_WETSKIN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,10 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DBF_FOXRAIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ATK_WAVE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -347,10 +335,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BLANK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격확률</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -420,6 +404,14 @@
   </si>
   <si>
     <t>null.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK_HEADBUTT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBF_WET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -697,6 +689,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -752,15 +753,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1071,36 +1063,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="72" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17" zeroHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.58203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.08203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.75" customWidth="1"/>
-    <col min="11" max="11" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.58203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.875" customWidth="1"/>
-    <col min="18" max="18" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.83203125" customWidth="1"/>
+    <col min="18" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="19" max="24" width="9" customWidth="1"/>
-    <col min="25" max="25" width="8.875" hidden="1"/>
+    <col min="25" max="25" width="8.83203125" hidden="1" customWidth="1"/>
     <col min="26" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A1" s="24" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1119,7 +1111,7 @@
         <v>54</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>55</v>
@@ -1131,38 +1123,38 @@
         <v>57</v>
       </c>
       <c r="K1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="Q1" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="R1" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="R1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A2" s="25"/>
       <c r="B2" s="8" t="s">
         <v>27</v>
       </c>
@@ -1179,7 +1171,7 @@
         <v>46</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>58</v>
@@ -1191,38 +1183,38 @@
         <v>60</v>
       </c>
       <c r="K2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="O2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="R2" s="28" t="s">
+      <c r="R2" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="30"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="33"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A3" s="26" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="4">
@@ -1244,19 +1236,19 @@
         <v>15</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>61</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M3" s="4">
         <v>100</v>
@@ -1265,13 +1257,13 @@
         <v>3</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="R3" s="40" t="s">
         <v>13</v>
@@ -1283,8 +1275,8 @@
       <c r="W3" s="41"/>
       <c r="X3" s="42"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A4" s="27"/>
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -1298,40 +1290,40 @@
         <v>44</v>
       </c>
       <c r="F4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="4">
         <v>15</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K4" s="4">
         <v>100</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>20</v>
       </c>
       <c r="R4" s="40" t="s">
         <v>14</v>
@@ -1343,8 +1335,8 @@
       <c r="W4" s="41"/>
       <c r="X4" s="42"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A5" s="27"/>
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -1358,37 +1350,37 @@
         <v>43</v>
       </c>
       <c r="F5" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4">
         <v>7</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>62</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M5" s="4">
         <v>100</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="4">
         <v>20</v>
@@ -1403,8 +1395,8 @@
       <c r="W5" s="41"/>
       <c r="X5" s="42"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A6" s="28"/>
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -1418,25 +1410,25 @@
         <v>43</v>
       </c>
       <c r="F6" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6" s="4">
         <v>3</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>63</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M6" s="4">
         <v>100</v>
@@ -1445,10 +1437,10 @@
         <v>10</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q6" s="4">
         <v>5</v>
@@ -1463,7 +1455,7 @@
       <c r="W6" s="41"/>
       <c r="X6" s="42"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="37" t="s">
         <v>9</v>
       </c>
@@ -1489,10 +1481,10 @@
         <v>64</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="K7" s="7">
         <v>100</v>
@@ -1501,10 +1493,10 @@
         <v>70</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O7" s="7">
         <v>10</v>
@@ -1513,19 +1505,19 @@
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="R7" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="R7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="33"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="14"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="38"/>
       <c r="B8" s="4">
         <v>6</v>
@@ -1546,13 +1538,13 @@
         <v>0</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="K8" s="7">
         <v>100</v>
@@ -1561,10 +1553,10 @@
         <v>70</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O8" s="7">
         <v>30</v>
@@ -1573,19 +1565,19 @@
         <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="R8" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="R8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="33"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="14"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="38"/>
       <c r="B9" s="4">
         <v>7</v>
@@ -1606,25 +1598,25 @@
         <v>0</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O9" s="7">
         <v>100</v>
@@ -1633,19 +1625,19 @@
         <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="R9" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="R9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="33"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="14"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="38"/>
       <c r="B10" s="4">
         <v>8</v>
@@ -1666,13 +1658,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K10" s="7">
         <v>100</v>
@@ -1681,31 +1673,31 @@
         <v>100</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="R10" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="R10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="33"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="14"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="38"/>
       <c r="B11" s="4">
         <v>9</v>
@@ -1726,19 +1718,19 @@
         <v>0</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M11" s="7">
         <v>100</v>
@@ -1747,25 +1739,25 @@
         <v>15</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q11" s="7">
         <v>5</v>
       </c>
-      <c r="R11" s="31" t="s">
+      <c r="R11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="33"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="14"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="39"/>
       <c r="B12" s="4">
         <v>10</v>
@@ -1786,16 +1778,16 @@
         <v>0</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L12" s="7">
         <v>20</v>
@@ -1807,25 +1799,25 @@
         <v>5</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="R12" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="R12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="14"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="17"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -1848,13 +1840,13 @@
         <v>15</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K13" s="6">
         <v>100</v>
@@ -1863,10 +1855,10 @@
         <v>60</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O13" s="6">
         <v>10</v>
@@ -1875,7 +1867,7 @@
         <v>15</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="R13" s="34" t="s">
         <v>23</v>
@@ -1887,7 +1879,7 @@
       <c r="W13" s="35"/>
       <c r="X13" s="36"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -1910,13 +1902,13 @@
         <v>15</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K14" s="5">
         <v>100</v>
@@ -1925,31 +1917,31 @@
         <v>35</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="R14" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="R14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="17"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="20"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1972,13 +1964,13 @@
         <v>15</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K15" s="2">
         <v>100</v>
@@ -1993,177 +1985,126 @@
         <v>10</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="R15" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="R15" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="20"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="23"/>
     </row>
-    <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
     </row>
-    <row r="17" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="18" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="19" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="20" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="21" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="22" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="23" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="25" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="26" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="27" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="28" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="29" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="30" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="31" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="32" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="34" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="35" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="36" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="37" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="38" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="39" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="40" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="41" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="42" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="43" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="44" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="45" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="46" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="47" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="48" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="49" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="50" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="51" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="52" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="53" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="54" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="55" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="57" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="58" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="59" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="60" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="61" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="62" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="63" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="64" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="65" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="66" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="67" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="68" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="69" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="70" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="71" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="72" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="73" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="74" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="75" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="76" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="77" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="78" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="79" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="80" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="81" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="82" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="83" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="84" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="85" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="86" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="87" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="88" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="89" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="90" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="91" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="92" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="93" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="94" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="95" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="96" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A97"/>
-      <c r="B97"/>
-      <c r="C97"/>
-      <c r="D97"/>
-    </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A98"/>
-      <c r="B98"/>
-      <c r="C98"/>
-      <c r="D98"/>
-    </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A99"/>
-      <c r="B99"/>
-      <c r="C99"/>
-      <c r="D99"/>
-    </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A100"/>
-      <c r="B100"/>
-      <c r="C100"/>
-      <c r="D100"/>
-    </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A101"/>
-      <c r="B101"/>
-      <c r="C101"/>
-      <c r="D101"/>
-    </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A102"/>
-      <c r="B102"/>
-      <c r="C102"/>
-      <c r="D102"/>
-    </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A103"/>
-      <c r="B103"/>
-      <c r="C103"/>
-      <c r="D103"/>
-    </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A104"/>
-      <c r="B104"/>
-      <c r="C104"/>
-      <c r="D104"/>
-    </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A105"/>
-      <c r="B105"/>
-      <c r="C105"/>
-      <c r="D105"/>
-    </row>
+    <row r="17" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="18" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="19" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="20" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="21" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="22" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="23" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="24" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="25" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="26" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="27" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="28" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="29" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="30" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="31" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="32" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="33" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="34" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="35" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="36" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="37" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="38" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="39" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="40" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="41" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="42" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="43" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="44" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="45" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="46" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="47" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="48" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="49" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="50" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="51" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="52" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="53" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="54" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="55" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="56" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="57" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="58" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="59" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="60" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="61" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="62" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="63" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="64" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="65" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="66" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="67" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="68" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="69" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="70" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="71" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="72" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="73" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="74" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="75" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="76" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="77" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="78" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="79" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="80" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="81" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="82" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="83" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="84" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="85" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="86" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="87" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="88" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="89" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="90" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="91" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="92" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="93" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="94" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="95" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="96" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="97" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="98" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="99" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="100" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="101" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="102" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="103" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="104" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="105" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="R10:X10"/>
-    <mergeCell ref="R11:X11"/>
-    <mergeCell ref="R12:X12"/>
-    <mergeCell ref="R14:X14"/>
-    <mergeCell ref="R15:X15"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="R1:X1"/>
     <mergeCell ref="R2:X2"/>
     <mergeCell ref="R8:X8"/>
-    <mergeCell ref="R13:X13"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="R3:X3"/>
     <mergeCell ref="R4:X4"/>
@@ -2171,6 +2112,12 @@
     <mergeCell ref="R6:X6"/>
     <mergeCell ref="R7:X7"/>
     <mergeCell ref="R9:X9"/>
+    <mergeCell ref="R10:X10"/>
+    <mergeCell ref="R11:X11"/>
+    <mergeCell ref="R12:X12"/>
+    <mergeCell ref="R14:X14"/>
+    <mergeCell ref="R15:X15"/>
+    <mergeCell ref="R13:X13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/10. Data/MagicTable.xlsx
+++ b/Assets/10. Data/MagicTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Elin\Assets\10. Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192BDEA6-448E-4300-BCB3-CBFACF247D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E3A9A0-641B-4123-9831-99C896B5F022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="96">
   <si>
     <t>인덱스</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -688,6 +688,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -697,6 +727,24 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -724,36 +772,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -762,24 +780,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1063,36 +1063,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="72" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17" zeroHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.58203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.75" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.83203125" customWidth="1"/>
-    <col min="18" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.875" customWidth="1"/>
+    <col min="18" max="18" width="13.875" bestFit="1" customWidth="1"/>
     <col min="19" max="24" width="9" customWidth="1"/>
-    <col min="25" max="25" width="8.83203125" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="8.875" hidden="1" customWidth="1"/>
     <col min="26" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1143,18 +1143,18 @@
       <c r="Q1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A2" s="25"/>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
       <c r="B2" s="8" t="s">
         <v>27</v>
       </c>
@@ -1203,18 +1203,18 @@
       <c r="Q2" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="R2" s="31" t="s">
+      <c r="R2" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="33"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="21"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="4">
@@ -1233,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>92</v>
@@ -1265,18 +1265,18 @@
       <c r="Q3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="R3" s="40" t="s">
+      <c r="R3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="42"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="30"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A4" s="27"/>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>94</v>
@@ -1325,18 +1325,18 @@
       <c r="Q4" s="4">
         <v>20</v>
       </c>
-      <c r="R4" s="40" t="s">
+      <c r="R4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="42"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="30"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A5" s="27"/>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="4">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>92</v>
@@ -1385,18 +1385,18 @@
       <c r="Q5" s="4">
         <v>20</v>
       </c>
-      <c r="R5" s="40" t="s">
+      <c r="R5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="42"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="30"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A6" s="28"/>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="4">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>92</v>
@@ -1445,18 +1445,18 @@
       <c r="Q6" s="4">
         <v>5</v>
       </c>
-      <c r="R6" s="40" t="s">
+      <c r="R6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="42"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="30"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="4">
@@ -1475,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>64</v>
@@ -1507,18 +1507,18 @@
       <c r="Q7" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="R7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="14"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="24"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A8" s="38"/>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -1567,18 +1567,18 @@
       <c r="Q8" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="R8" s="12" t="s">
+      <c r="R8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="14"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="24"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A9" s="38"/>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -1627,18 +1627,18 @@
       <c r="Q9" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="R9" s="12" t="s">
+      <c r="R9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="14"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="24"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A10" s="38"/>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -1687,18 +1687,18 @@
       <c r="Q10" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="R10" s="12" t="s">
+      <c r="R10" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="14"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="24"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A11" s="38"/>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -1738,8 +1738,8 @@
       <c r="N11" s="7">
         <v>15</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>92</v>
+      <c r="O11" s="7">
+        <v>100</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>92</v>
@@ -1747,18 +1747,18 @@
       <c r="Q11" s="7">
         <v>5</v>
       </c>
-      <c r="R11" s="12" t="s">
+      <c r="R11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="14"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="24"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A12" s="39"/>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
       <c r="B12" s="4">
         <v>10</v>
       </c>
@@ -1807,17 +1807,17 @@
       <c r="Q12" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="R12" s="15" t="s">
+      <c r="R12" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="17"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="33"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>71</v>
@@ -1869,17 +1869,17 @@
       <c r="Q13" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="R13" s="34" t="s">
+      <c r="R13" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="36"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="42"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>73</v>
@@ -1931,17 +1931,17 @@
       <c r="Q14" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="R14" s="18" t="s">
+      <c r="R14" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="20"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="36"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>75</v>
@@ -1993,113 +1993,116 @@
       <c r="Q15" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="R15" s="21" t="s">
+      <c r="R15" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="23"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="39"/>
     </row>
-    <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
     </row>
-    <row r="17" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="18" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="19" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="20" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="21" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="22" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="23" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="24" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="25" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="26" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="27" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="28" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="29" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="30" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="31" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="32" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="33" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="34" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="35" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="36" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="37" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="38" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="39" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="40" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="41" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="42" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="43" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="44" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="45" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="46" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="47" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="48" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="49" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="50" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="51" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="52" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="53" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="54" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="55" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="56" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="57" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="58" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="59" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="60" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="61" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="62" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="63" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="64" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="65" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="66" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="67" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="68" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="69" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="70" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="71" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="72" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="73" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="74" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="75" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="76" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="77" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="78" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="79" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="80" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="81" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="82" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="83" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="84" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="85" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="86" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="87" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="88" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="89" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="90" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="91" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="92" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="93" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="94" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="95" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="96" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="97" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="98" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="99" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="100" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="101" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="102" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="103" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="104" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="105" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="17" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="18" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="19" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="20" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="21" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="22" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="23" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="25" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="26" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="27" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="28" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="29" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="30" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="31" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="32" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="34" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="35" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="36" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="37" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="38" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="39" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="40" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="41" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="42" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="43" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="44" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="45" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="46" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="47" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="48" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="49" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="50" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="51" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="52" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="53" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="54" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="55" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="57" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="58" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="59" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="60" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="61" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="62" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="63" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="64" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="65" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="66" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="67" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="68" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="69" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="70" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="71" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="72" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="73" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="74" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="75" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="76" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="77" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="78" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="79" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="80" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="81" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="82" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="83" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="84" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="85" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="86" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="87" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="88" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="89" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="90" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="91" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="92" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="93" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="94" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="95" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="96" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="97" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="98" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="99" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="100" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="101" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="102" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="103" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="104" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="105" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="R14:X14"/>
+    <mergeCell ref="R15:X15"/>
+    <mergeCell ref="R13:X13"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="R1:X1"/>
@@ -2115,9 +2118,6 @@
     <mergeCell ref="R10:X10"/>
     <mergeCell ref="R11:X11"/>
     <mergeCell ref="R12:X12"/>
-    <mergeCell ref="R14:X14"/>
-    <mergeCell ref="R15:X15"/>
-    <mergeCell ref="R13:X13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
